--- a/www/data/diccionario_dt24.xlsx
+++ b/www/data/diccionario_dt24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\crudo\scripts\app_DT21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Repositorios de R\Repos Propios\ceped-data\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA1015-2D28-48F1-A052-A81428E097F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF976C6-DEA3-4255-9B07-5925CFD346A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>puestos</t>
   </si>
@@ -34,12 +34,6 @@
     <t>puestos.composicion</t>
   </si>
   <si>
-    <t>salario.real.2021</t>
-  </si>
-  <si>
-    <t>masa.salarial.real.2021</t>
-  </si>
-  <si>
     <t>particip.vab.pb</t>
   </si>
   <si>
@@ -64,16 +58,19 @@
     <t>Porcentaje del total de puestos de trabajo (por sector)</t>
   </si>
   <si>
-    <t>Salario real promedio en $ de 2021 (del sector o del total de la economía)</t>
-  </si>
-  <si>
-    <t>Masa salarial real en millones de $ de 2021 (del sector o del total de la economía)</t>
-  </si>
-  <si>
     <t>Participación en el Valor Agregado Bruto a precios básicos (por sector o total de la economía)</t>
   </si>
   <si>
     <t>Participación en el Producto Interno Bruto a precios de mercado (por sector o total de la economía)</t>
+  </si>
+  <si>
+    <t>salario.real</t>
+  </si>
+  <si>
+    <t>Salario real promedio en $ del último año de la serie (del sector o del total de la economía)</t>
+  </si>
+  <si>
+    <t>Masa salarial real en millones de $ del último año de la serie (del sector o del total de la economía)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +453,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,12 +462,12 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -478,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -486,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -494,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -502,39 +499,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
